--- a/group-reports/tables/shahriar-3-1-results-after-queue.xlsx
+++ b/group-reports/tables/shahriar-3-1-results-after-queue.xlsx
@@ -722,12 +722,12 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>1637.5k</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>2464</t>
+          <t>1705.3k</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>5327.3k</t>
+          <t>6556.3k</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1383</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>1848.1k</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1386</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>2496.2k</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>9296.7k</t>
+          <t>12929k</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>1392</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>5553.4k</t>
+          <t>8060.7k</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>2415.0k</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>620273</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>514</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>2485.3k</t>
+          <t>688717</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>1487</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>1567</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>5232.0k</t>
+          <t>8542.8k</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>4194.9k</t>
+          <t>5451.8k</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2430,12 +2430,12 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1594</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>1519.0k</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2552,12 +2552,12 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>5794.3k</t>
+          <t>6902.5k</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -2674,12 +2674,12 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>1383</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>3832.8k</t>
+          <t>5156.5k</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>2536.8k</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -2918,12 +2918,12 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>5232.7k</t>
+          <t>6784</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -3040,12 +3040,12 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>2159.5k</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>2483.8k</t>
+          <t>1582.5k</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">

--- a/group-reports/tables/shahriar-3-1-results-after-queue.xlsx
+++ b/group-reports/tables/shahriar-3-1-results-after-queue.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>1275.62</t>
+          <t>8686.07</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>1272.88</t>
+          <t>14938.35</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>1253619.34</t>
+          <t>74929.02</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>1274.55</t>
+          <t>11302.20</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>1255.77</t>
+          <t>55184.95</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>1060430.31</t>
+          <t>1297209.56</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>1271092.60</t>
+          <t>88738.80</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>1275.43</t>
+          <t>8984.37</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>1277.69</t>
+          <t>3842.78</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>1272.65</t>
+          <t>15.82</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>1275156.71</t>
+          <t>9379.13</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>1270.54</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>851725.78</t>
+          <t>1357253.92</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>1211201.74</t>
+          <t>193189.34</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="Q17" s="1" t="inlineStr">
         <is>
-          <t>1274.15</t>
+          <t>12287.02</t>
         </is>
       </c>
       <c r="R17" s="1" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t>1262881.16</t>
+          <t>57778.46</t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>1141353.26</t>
+          <t>323333.12</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>1268200.07</t>
+          <t>26.22</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>687001.26</t>
+          <t>1844.93</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>1245.47</t>
+          <t>79003.52</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t>1271731.74</t>
+          <t>17702.64</t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
